--- a/xlsx/捷克_intext.xlsx
+++ b/xlsx/捷克_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="930">
   <si>
     <t>捷克</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>捷克語</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_捷克</t>
+    <t>捷克语</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_捷克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E6%97%97</t>
@@ -71,9 +71,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E8%AF%AD</t>
   </si>
   <si>
-    <t>捷克语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B%E8%AF%AD</t>
   </si>
   <si>
@@ -173,7 +170,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%8B%89%E7%B6%AD%E4%BA%9E%E4%BA%BA</t>
   </si>
   <si>
-    <t>摩拉維亞人</t>
+    <t>摩拉维亚人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B%E4%BA%BA</t>
@@ -185,7 +182,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD%E4%BA%BA</t>
   </si>
   <si>
-    <t>波蘭人</t>
+    <t>波兰人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%A4%A9%E4%B8%BB%E6%95%99</t>
@@ -299,13 +296,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>捷克社會主義共和國</t>
+    <t>捷克社会主义共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E9%B5%9D%E7%B5%A8%E5%88%86%E9%9B%A2</t>
   </si>
   <si>
-    <t>天鵝絨分離</t>
+    <t>天鹅绒分离</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E8%81%94%E7%9B%9F</t>
@@ -437,7 +434,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%85%89%E7%AF%80%E7%B4%84%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>日光節約時間</t>
+    <t>日光节约时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E4%B8%AD%E9%83%A8%E5%A4%8F%E4%BB%A4%E6%97%B6%E9%97%B4</t>
@@ -485,21 +482,18 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%AD%90</t>
   </si>
   <si>
-    <t>中歐</t>
+    <t>中欧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E9%99%B8%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>內陸國家</t>
+    <t>内陆国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>捷克歷史</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%8F%A4</t>
   </si>
   <si>
@@ -521,9 +515,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%B8%8C%E7%B1%B3%E4%BA%9E%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>波希米亞王國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99</t>
   </si>
   <si>
@@ -545,7 +536,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%84%89%E6%B0%91</t>
   </si>
   <si>
-    <t>鄉民</t>
+    <t>乡民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%88%E4%BE%9D</t>
@@ -563,7 +554,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%A0%BC%E6%96%AF%E5%A0%A1%E5%92%8C%E7%B4%84</t>
   </si>
   <si>
-    <t>奧格斯堡和約</t>
+    <t>奥格斯堡和约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E8%87%AA%E7%94%B1</t>
@@ -587,13 +578,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%8D%81%E5%B9%B4%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>三十年戰爭</t>
+    <t>三十年战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第一次世界大戰</t>
+    <t>第一次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%8C%88%E5%B8%9D%E5%9B%BD</t>
@@ -611,31 +602,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%85%95%E5%B0%BC%E9%BB%91%E5%8D%94%E5%AE%9A</t>
   </si>
   <si>
-    <t>慕尼黑協定</t>
+    <t>慕尼黑协定</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>納粹德國</t>
+    <t>纳粹德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%B8%8C%E7%B1%B3%E4%BA%9E%E5%92%8C%E6%91%A9%E6%8B%89%E7%B6%AD%E4%BA%9E%E4%BF%9D%E8%AD%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>波希米亞和摩拉維亞保護國</t>
+    <t>波希米亚和摩拉维亚保护国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>斯洛伐克國</t>
+    <t>斯洛伐克国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B%E5%85%B1%E7%94%A2%E9%BB%A8</t>
   </si>
   <si>
-    <t>捷克斯洛伐克共產黨</t>
+    <t>捷克斯洛伐克共产党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%85%9A%E6%89%A7%E6%94%BF</t>
@@ -671,7 +662,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E9%B5%9D%E7%B5%A8%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>天鵝絨革命</t>
+    <t>天鹅绒革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BA%A6</t>
@@ -683,9 +674,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐盟</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B3%E6%A0%B9%E5%85%AC%E7%BA%A6</t>
   </si>
   <si>
@@ -701,13 +689,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E9%99%A2%E5%88%B6</t>
   </si>
   <si>
-    <t>兩院制</t>
+    <t>两院制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E9%81%B8</t>
   </si>
   <si>
-    <t>直選</t>
+    <t>直选</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%A4%E8%BD%AE%E9%80%89%E4%B8%BE%E5%88%B6</t>
@@ -719,13 +707,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E6%B0%91%E4%B8%BB%E9%BB%A8</t>
   </si>
   <si>
-    <t>公民民主黨</t>
+    <t>公民民主党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E7%A4%BE%E6%9C%83%E6%B0%91%E4%B8%BB%E9%BB%A8</t>
   </si>
   <si>
-    <t>捷克社會民主黨</t>
+    <t>捷克社会民主党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%92%8C%E6%91%A9%E6%8B%89%E7%BB%B4%E4%BA%9A%E5%85%B1%E4%BA%A7%E5%85%9A</t>
@@ -737,61 +725,55 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E6%B0%91%E4%B8%BB%E8%81%AF%E7%9B%9F%EF%BC%8D%E6%8D%B7%E5%85%8B%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B%E4%BA%BA%E6%B0%91%E9%BB%A8</t>
   </si>
   <si>
-    <t>基督教民主聯盟－捷克斯洛伐克人民黨</t>
+    <t>基督教民主联盟－捷克斯洛伐克人民党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E9%BB%A8_(%E6%8D%B7%E5%85%8B)</t>
   </si>
   <si>
-    <t>綠黨 (捷克)</t>
+    <t>绿党 (捷克)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E6%B4%9B%E7%94%9A%C2%B7%E6%BE%A4%E6%9B%BC</t>
   </si>
   <si>
-    <t>米洛甚·澤曼</t>
+    <t>米洛甚·泽曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9</t>
   </si>
   <si>
-    <t>奧地利</t>
+    <t>奥地利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%8C%88%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>奧匈帝國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%B8%8C%E7%B1%B3%E4%BA%9E</t>
   </si>
   <si>
-    <t>波希米亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%8B%89%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>摩拉維亞</t>
+    <t>摩拉维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%87%8C%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>西里西亞</t>
+    <t>西里西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8F%E5%B0%94%E5%A1%94%E7%93%A6%E6%B2%B3</t>
@@ -809,7 +791,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%80%E7%88%BE%E5%B7%B4%E9%98%A1%E5%B1%B1</t>
   </si>
   <si>
-    <t>喀爾巴阡山</t>
+    <t>喀尔巴阡山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%8B%89%E7%93%A6%E6%B2%B3</t>
@@ -839,9 +821,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
   </si>
   <si>
-    <t>德国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E5%85%83%E5%8C%BA</t>
   </si>
   <si>
@@ -929,7 +908,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%BE%85%E7%B6%AD%E7%99%BC%E5%88%A9%E5%B7%9E</t>
   </si>
   <si>
-    <t>卡羅維發利州</t>
+    <t>卡罗维发利州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%B4%9D%E6%B2%B3%E7%95%94%E4%B9%8C%E6%96%AF%E5%AD%A3%E5%B7%9E</t>
@@ -959,13 +938,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%B4%A2%E5%9F%BA%E7%B4%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>維索基納州</t>
+    <t>维索基纳州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%91%A9%E6%8B%89%E7%B6%AD%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>南摩拉維亞州</t>
+    <t>南摩拉维亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%B4%9B%E7%A9%86%E8%8C%A8%E5%B7%9E</t>
@@ -989,19 +968,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>德國人</t>
+    <t>德国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%87%8C%E8%A5%BF%E4%BA%9E%E4%BA%BA</t>
   </si>
   <si>
-    <t>西里西亞人</t>
+    <t>西里西亚人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%A7%86%E4%BA%BA</t>
   </si>
   <si>
-    <t>羅姆人</t>
+    <t>罗姆人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E7%BB%9F%E8%AE%A1%E5%B1%80</t>
@@ -1013,7 +992,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E4%BA%BA%E5%A4%A7%E5%B1%A0%E6%AE%BA</t>
   </si>
   <si>
-    <t>猶太人大屠殺</t>
+    <t>犹太人大屠杀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%AC%C2%B7%E8%8F%B2%E8%88%8D%E5%B0%94</t>
@@ -1031,7 +1010,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E7%B1%8D%E5%8B%9E%E5%B7%A5</t>
   </si>
   <si>
-    <t>外籍勞工</t>
+    <t>外籍劳工</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5</t>
@@ -1043,27 +1022,24 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%B9%9F%E7%B4%8D</t>
   </si>
   <si>
-    <t>維也納</t>
+    <t>维也纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E6%B2%99%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>愛沙尼亞</t>
+    <t>爱沙尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%A5%9E%E8%AB%96</t>
   </si>
   <si>
-    <t>無神論</t>
+    <t>无神论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%A4%A9%E4%B8%BB%E6%95%99</t>
   </si>
   <si>
-    <t>羅馬天主教</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%B8%9D</t>
   </si>
   <si>
@@ -1073,7 +1049,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%88%E9%AD%82</t>
   </si>
   <si>
-    <t>靈魂</t>
+    <t>灵魂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%A2%E8%80%8C%E4%B8%8A</t>
@@ -1091,7 +1067,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E5%9C%8B%E9%9A%9B%E9%9B%BB%E5%BD%B1%E7%AF%80</t>
   </si>
   <si>
-    <t>東京國際電影節</t>
+    <t>东京国际电影节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%B3%E7%90%83</t>
@@ -1115,7 +1091,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E8%B6%B3%E7%90%83%E5%85%88%E7%94%9F</t>
   </si>
   <si>
-    <t>歐洲足球先生</t>
+    <t>欧洲足球先生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%BB%B4%E5%B0%94%C2%B7%E5%86%85%E5%BE%B7%E7%BB%B4%E5%BE%B7</t>
@@ -1127,19 +1103,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>捷克國家足球隊</t>
+    <t>捷克国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E7%94%9F%E7%94%A2%E6%AF%9B%E9%A1%8D</t>
   </si>
   <si>
-    <t>國民生產毛額</t>
+    <t>国民生产毛额</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%B7%E7%AB%8A</t>
   </si>
   <si>
-    <t>偷竊</t>
+    <t>偷窃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%BD%97%E7%BB%B4%E5%8F%91%E5%88%A9</t>
@@ -1157,7 +1133,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%9C%97%E9%BD%8A%E6%AD%87%E5%85%8B%E7%A4%A6%E6%B3%89%E6%9D%91</t>
   </si>
   <si>
-    <t>弗朗齊歇克礦泉村</t>
+    <t>弗朗齐歇克矿泉村</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%E4%BB%80%E7%89%B9%E5%9B%A0%E5%9F%8E%E5%A0%A1</t>
@@ -1175,7 +1151,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E5%BE%B7%E5%B0%BC%E9%87%87-%E7%93%A6%E7%88%BE%E5%AD%A3%E9%87%87%E6%96%87%E5%8C%96%E6%99%AF%E8%A7%80</t>
   </si>
   <si>
-    <t>萊德尼采-瓦爾季采文化景觀</t>
+    <t>莱德尼采-瓦尔季采文化景观</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%B8%8C%E7%B1%B3%E4%BA%9A%E6%A3%AE%E6%9E%97</t>
@@ -1217,31 +1193,31 @@
     <t>https://zh.wikipedia.org/wiki/AZ%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>AZ大廈</t>
+    <t>AZ大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%8B%89%E6%A0%BC%E7%93%A6%E8%8C%A8%E6%8B%89%E5%A4%AB%C2%B7%E5%93%88%E7%B6%AD%E7%88%BE%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>布拉格瓦茨拉夫·哈維爾國際機場</t>
+    <t>布拉格瓦茨拉夫·哈维尔国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%88%BE%E8%AB%BE</t>
   </si>
   <si>
-    <t>布爾諾</t>
+    <t>布尔诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%BE%85%E7%B6%AD%E7%93%A6%E5%88%A9</t>
   </si>
   <si>
-    <t>卡羅維瓦利</t>
+    <t>卡罗维瓦利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E7%89%B9%E6%8B%89%E7%93%A6</t>
   </si>
   <si>
-    <t>奧斯特拉瓦</t>
+    <t>奥斯特拉瓦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E5%B0%94%E6%9D%9C%E6%AF%94%E9%87%87</t>
@@ -1253,13 +1229,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E8%AB%BE%E7%B6%AD%E9%87%87</t>
   </si>
   <si>
-    <t>庫諾維采</t>
+    <t>库诺维采</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E8%B5%AB%E7%88%BE%E5%A0%A1</t>
   </si>
   <si>
-    <t>烏赫爾堡</t>
+    <t>乌赫尔堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E9%93%81%E8%B7%AF</t>
@@ -1277,7 +1253,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%BE%E6%96%9C%E5%BC%8F%E5%88%97%E8%BB%8A</t>
   </si>
   <si>
-    <t>傾斜式列車</t>
+    <t>倾斜式列车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/International_Monetary_Fund</t>
@@ -1319,9 +1295,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9</t>
   </si>
   <si>
-    <t>奥地利</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Europe</t>
   </si>
   <si>
@@ -1415,15 +1388,9 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%AC%A7</t>
   </si>
   <si>
-    <t>中欧</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%85%B0</t>
   </si>
   <si>
-    <t>波兰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9</t>
   </si>
   <si>
@@ -1451,7 +1418,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
   </si>
   <si>
-    <t>歐俄</t>
+    <t>欧俄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
@@ -1469,13 +1436,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A</t>
   </si>
   <si>
-    <t>爱沙尼亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>拉脫維亞</t>
+    <t>拉脱维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
@@ -1505,13 +1469,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>斯洛維尼亞</t>
+    <t>斯洛维尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>克羅埃西亞</t>
+    <t>克罗埃西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
@@ -1523,7 +1487,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
@@ -1535,13 +1499,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞</t>
+    <t>罗马尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>保加利亞</t>
+    <t>保加利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
@@ -1559,13 +1523,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬其頓共和國</t>
+    <t>马其顿共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
   </si>
   <si>
-    <t>馬爾他</t>
+    <t>马尔他</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%AC%A7</t>
@@ -1583,25 +1547,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
   </si>
   <si>
-    <t>聖座</t>
+    <t>圣座</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
   </si>
   <si>
-    <t>梵蒂岡</t>
+    <t>梵蒂冈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
@@ -1631,7 +1595,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
   </si>
   <si>
-    <t>屬地</t>
+    <t>属地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
@@ -1649,19 +1613,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
   </si>
   <si>
-    <t>曼島</t>
+    <t>曼岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF</t>
   </si>
   <si>
-    <t>澤西</t>
+    <t>泽西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E9%A6%AC%E5%BB%B6%E5%B3%B6</t>
   </si>
   <si>
-    <t>揚馬延島</t>
+    <t>扬马延岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B0%94%E5%B7%B4%E7%BE%A4%E5%B2%9B</t>
@@ -1679,7 +1643,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
   </si>
   <si>
-    <t>馬爾他騎士團</t>
+    <t>马尔他骑士团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
@@ -1733,7 +1697,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
@@ -1757,27 +1721,15 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9A</t>
   </si>
   <si>
-    <t>保加利亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BD%97%E5%9C%B0%E4%BA%9A</t>
   </si>
   <si>
@@ -1787,13 +1739,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%90%88%E4%BD%9C%E8%88%87%E7%99%BC%E5%B1%95%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>經濟合作與發展組織</t>
+    <t>经济合作与发展组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
@@ -1817,21 +1769,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD</t>
   </si>
   <si>
-    <t>芬蘭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
   </si>
   <si>
-    <t>冰島</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
   </si>
   <si>
@@ -1841,9 +1784,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>愛爾蘭共和國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
@@ -1865,9 +1805,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1</t>
   </si>
   <si>
-    <t>盧森堡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
   </si>
   <si>
@@ -1877,25 +1814,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>新西蘭</t>
+    <t>新西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E8%81%AF%E9%82%A6</t>
   </si>
   <si>
-    <t>俄羅斯聯邦</t>
+    <t>俄罗斯联邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>哥倫比亞</t>
+    <t>哥伦比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E8%BE%BE%E9%BB%8E%E5%8A%A0</t>
@@ -1919,7 +1856,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E8%87%BA%E5%8C%97</t>
   </si>
   <si>
-    <t>中華臺北</t>
+    <t>中华台北</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E7%9B%9F%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -1985,7 +1922,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%B4%84%E6%93%B4%E5%BC%B5</t>
   </si>
   <si>
-    <t>北約擴張</t>
+    <t>北约扩张</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/North_Atlantic_Council</t>
@@ -2015,7 +1952,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%B4%84%E7%A7%98%E6%9B%B8%E9%95%B7</t>
   </si>
   <si>
-    <t>北約秘書長</t>
+    <t>北约秘书长</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Chairman_of_the_NATO_Military_Committee</t>
@@ -2123,7 +2060,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A6%81%E9%9D%9E%E5%8C%97%E7%B4%84%E7%9B%9F%E5%8F%8B</t>
   </si>
   <si>
-    <t>主要非北約盟友</t>
+    <t>主要非北约盟友</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mediterranean_Dialogue</t>
@@ -2147,7 +2084,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>地中海聯盟</t>
+    <t>地中海联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%93%A5</t>
@@ -2165,7 +2102,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%8F%8A%E5%88%A9%E4%BA%9A</t>
@@ -2201,13 +2138,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E5%9C%88%E5%9C%8B%E9%9A%9B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>法語圈國際組織</t>
+    <t>法语圈国际组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
+    <t>亚美尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%AE%81</t>
@@ -2219,7 +2156,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
   </si>
   <si>
-    <t>布吉納法索</t>
+    <t>布吉纳法索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%B2%E9%9A%86%E5%9C%B0</t>
@@ -2249,7 +2186,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中非共和國</t>
+    <t>中非共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E6%91%A9</t>
@@ -2303,7 +2240,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E%E6%AF%94%E7%B4%A2</t>
   </si>
   <si>
-    <t>幾內亞比索</t>
+    <t>几内亚比索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%87%A0%E5%86%85%E4%BA%9A</t>
@@ -2345,7 +2282,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%B8%8D%E5%80%AB%E7%91%9E%E5%85%8B</t>
   </si>
   <si>
-    <t>新不倫瑞克</t>
+    <t>新不伦瑞克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E5%B0%94</t>
@@ -2429,7 +2366,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%96%80%E9%87%8C%E5%A4%9A%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>新喀里多尼亞</t>
+    <t>新喀里多尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A1%94%E5%B0%94</t>
@@ -2495,7 +2432,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%89%B9%E7%BE%85%E6%96%AF%C2%B7%E5%B8%83%E7%89%B9%E7%BE%85%E6%96%AF-%E5%8A%A0%E5%88%A9</t>
   </si>
   <si>
-    <t>布特羅斯·布特羅斯-加利</t>
+    <t>布特罗斯·布特罗斯-加利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%84%E7%BE%8E%E6%A5%B7</t>
@@ -2513,13 +2450,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E7%B3%BB%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>法語系運動會</t>
+    <t>法语系运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E9%9B%BB%E8%A6%96%E5%9C%8B%E9%9A%9B%E4%BA%94%E5%8F%B0</t>
   </si>
   <si>
-    <t>法國電視國際五台</t>
+    <t>法国电视国际五台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E</t>
@@ -2555,7 +2492,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1%E5%B8%82</t>
   </si>
   <si>
-    <t>盧森堡市</t>
+    <t>卢森堡市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%B0%94%E5%B0%BC</t>
@@ -2567,9 +2504,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E4%B9%9F%E7%BA%B3</t>
   </si>
   <si>
-    <t>维也纳</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E6%9F%8F%E6%9E%97</t>
   </si>
   <si>
@@ -2579,7 +2513,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E9%83%BD%E8%8C%B2</t>
   </si>
   <si>
-    <t>瓦都茲</t>
+    <t>瓦都兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%9C%AC%E5%93%88%E6%A0%B9</t>
@@ -2609,7 +2543,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%85%8B%E9%9B%85%E7%B6%AD%E5%85%8B</t>
   </si>
   <si>
-    <t>雷克雅維克</t>
+    <t>雷克雅维克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%BE%B7%E9%87%8C</t>
@@ -2651,13 +2585,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%86%88</t>
   </si>
   <si>
-    <t>梵蒂冈</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%8A%9B%E8%AB%BE_(%E5%9F%8E%E5%B8%82)</t>
   </si>
   <si>
-    <t>聖馬力諾 (城市)</t>
+    <t>圣马力诺 (城市)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%80%B3%E4%BB%96</t>
@@ -2681,7 +2612,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B3%B0%E9%9A%86%E5%B0%BC%E4%BA%9E%E5%85%B1%E5%92%8C%E5%9C%8B_(2017%E5%B9%B4)</t>
   </si>
   <si>
-    <t>加泰隆尼亞共和國 (2017年)</t>
+    <t>加泰隆尼亚共和国 (2017年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A1%9E%E7%BD%97%E9%82%A3</t>
@@ -2765,7 +2696,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E8%8F%B2%E4%BA%9E</t>
   </si>
   <si>
-    <t>索菲亞</t>
+    <t>索菲亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%BE%B7%E6%88%88%E9%87%8C%E5%AF%9F</t>
@@ -2777,7 +2708,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%87%8C%E4%BB%80%E8%92%82%E7%B4%8D</t>
   </si>
   <si>
-    <t>普里什蒂納</t>
+    <t>普里什蒂纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E8%80%B6%E4%BD%9B</t>
@@ -2825,7 +2756,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2843,7 +2774,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2855,7 +2786,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -2867,13 +2798,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -3476,7 +3407,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
         <v>4</v>
@@ -3502,10 +3433,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -3531,10 +3462,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -3560,10 +3491,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -3589,10 +3520,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -3618,10 +3549,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -3647,10 +3578,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -3676,10 +3607,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -3705,10 +3636,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -3734,10 +3665,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -3763,10 +3694,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -3792,10 +3723,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -3821,10 +3752,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -3850,10 +3781,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -3879,10 +3810,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -3908,10 +3839,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -3937,10 +3868,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -3966,10 +3897,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -3995,10 +3926,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -4024,10 +3955,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -4053,10 +3984,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -4082,10 +4013,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>4</v>
@@ -4111,10 +4042,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -4140,10 +4071,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -4169,10 +4100,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -4198,10 +4129,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>3</v>
@@ -4227,10 +4158,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -4256,10 +4187,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -4285,10 +4216,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -4314,10 +4245,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>2</v>
@@ -4343,10 +4274,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -4372,10 +4303,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -4401,10 +4332,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -4430,10 +4361,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -4459,10 +4390,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -4488,10 +4419,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -4517,10 +4448,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -4546,10 +4477,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>12</v>
@@ -4575,10 +4506,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -4604,10 +4535,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -4633,10 +4564,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -4662,10 +4593,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -4691,10 +4622,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -4720,10 +4651,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>15</v>
@@ -4749,10 +4680,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -4778,10 +4709,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -4807,10 +4738,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>3</v>
@@ -4836,10 +4767,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -4865,10 +4796,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>4</v>
@@ -4894,10 +4825,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -4923,10 +4854,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -4952,10 +4883,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -4981,10 +4912,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -5010,10 +4941,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -5039,10 +4970,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -5068,10 +4999,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -5097,10 +5028,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -5126,10 +5057,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>3</v>
@@ -5155,10 +5086,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -5184,10 +5115,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -5213,10 +5144,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -5242,10 +5173,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -5271,10 +5202,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -5300,10 +5231,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -5329,10 +5260,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -5358,10 +5289,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -5387,10 +5318,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>8</v>
@@ -5416,10 +5347,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>32</v>
@@ -5445,10 +5376,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>5</v>
@@ -5474,10 +5405,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -5503,10 +5434,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>3</v>
@@ -5532,10 +5463,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -5561,10 +5492,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -5590,10 +5521,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -5619,10 +5550,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -5648,10 +5579,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>89</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -5677,10 +5608,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G85" t="n">
         <v>5</v>
@@ -5706,10 +5637,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5735,10 +5666,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G87" t="n">
         <v>8</v>
@@ -5764,10 +5695,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5793,10 +5724,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F89" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5822,10 +5753,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -5851,10 +5782,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5880,10 +5811,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5909,10 +5840,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F93" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5938,10 +5869,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F94" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -5967,10 +5898,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F95" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5996,10 +5927,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -6025,10 +5956,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F97" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -6054,10 +5985,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F98" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -6083,10 +6014,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F99" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -6112,10 +6043,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F100" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -6141,10 +6072,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F101" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -6170,10 +6101,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F102" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -6199,10 +6130,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F103" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -6228,10 +6159,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F104" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -6257,10 +6188,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F105" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -6286,10 +6217,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F106" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -6315,10 +6246,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F107" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -6344,10 +6275,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F108" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -6373,10 +6304,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F109" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -6402,10 +6333,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F110" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -6431,10 +6362,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F111" t="s">
-        <v>222</v>
+        <v>14</v>
       </c>
       <c r="G111" t="n">
         <v>3</v>
@@ -6460,10 +6391,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F112" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -6489,10 +6420,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F113" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -6518,10 +6449,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>70</v>
+      </c>
+      <c r="F114" t="s">
         <v>71</v>
-      </c>
-      <c r="F114" t="s">
-        <v>72</v>
       </c>
       <c r="G114" t="n">
         <v>3</v>
@@ -6547,10 +6478,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -6576,10 +6507,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>82</v>
+      </c>
+      <c r="F116" t="s">
         <v>83</v>
-      </c>
-      <c r="F116" t="s">
-        <v>84</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -6605,10 +6536,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>78</v>
+      </c>
+      <c r="F117" t="s">
         <v>79</v>
-      </c>
-      <c r="F117" t="s">
-        <v>80</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -6634,10 +6565,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>66</v>
+      </c>
+      <c r="F118" t="s">
         <v>67</v>
-      </c>
-      <c r="F118" t="s">
-        <v>68</v>
       </c>
       <c r="G118" t="n">
         <v>4</v>
@@ -6663,10 +6594,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F119" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -6692,10 +6623,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F120" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6721,10 +6652,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F121" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6750,10 +6681,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F122" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6779,10 +6710,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F123" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6808,10 +6739,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F124" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6837,10 +6768,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F125" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6866,10 +6797,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F126" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6895,10 +6826,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>98</v>
+      </c>
+      <c r="F127" t="s">
         <v>99</v>
-      </c>
-      <c r="F127" t="s">
-        <v>100</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6924,10 +6855,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F128" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G128" t="n">
         <v>8</v>
@@ -6953,10 +6884,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F129" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G129" t="n">
         <v>11</v>
@@ -6982,10 +6913,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F130" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -7011,10 +6942,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F131" t="s">
-        <v>252</v>
+        <v>191</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -7040,10 +6971,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F132" t="s">
-        <v>254</v>
+        <v>171</v>
       </c>
       <c r="G132" t="n">
         <v>6</v>
@@ -7069,10 +7000,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F133" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G133" t="n">
         <v>4</v>
@@ -7098,10 +7029,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F134" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -7127,10 +7058,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F135" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -7156,10 +7087,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F136" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -7185,10 +7116,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F137" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -7214,10 +7145,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F138" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -7243,10 +7174,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F139" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -7272,10 +7203,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F140" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G140" t="n">
         <v>4</v>
@@ -7301,10 +7232,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F141" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G141" t="n">
         <v>3</v>
@@ -7330,10 +7261,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F142" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="G142" t="n">
         <v>6</v>
@@ -7359,10 +7290,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F143" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7388,10 +7319,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F144" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G144" t="n">
         <v>3</v>
@@ -7417,10 +7348,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F145" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7446,10 +7377,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F146" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7475,10 +7406,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F147" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7504,10 +7435,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="F148" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7533,10 +7464,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F149" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7562,10 +7493,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F150" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7591,10 +7522,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F151" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7620,10 +7551,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F152" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7649,10 +7580,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F153" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7678,10 +7609,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F154" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7707,10 +7638,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F155" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7736,10 +7667,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F156" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7765,10 +7696,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F157" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7794,10 +7725,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F158" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7823,10 +7754,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F159" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7852,10 +7783,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F160" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7881,10 +7812,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F161" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7910,10 +7841,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F162" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7939,10 +7870,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F163" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7968,10 +7899,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F164" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7997,10 +7928,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F165" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -8026,10 +7957,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F166" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -8055,10 +7986,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F167" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -8084,10 +8015,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>48</v>
+      </c>
+      <c r="F168" t="s">
         <v>49</v>
-      </c>
-      <c r="F168" t="s">
-        <v>50</v>
       </c>
       <c r="G168" t="n">
         <v>4</v>
@@ -8113,10 +8044,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>50</v>
+      </c>
+      <c r="F169" t="s">
         <v>51</v>
-      </c>
-      <c r="F169" t="s">
-        <v>52</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -8142,10 +8073,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>52</v>
+      </c>
+      <c r="F170" t="s">
         <v>53</v>
-      </c>
-      <c r="F170" t="s">
-        <v>54</v>
       </c>
       <c r="G170" t="n">
         <v>3</v>
@@ -8171,10 +8102,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>54</v>
+      </c>
+      <c r="F171" t="s">
         <v>55</v>
-      </c>
-      <c r="F171" t="s">
-        <v>56</v>
       </c>
       <c r="G171" t="n">
         <v>2</v>
@@ -8200,10 +8131,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F172" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -8229,10 +8160,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F173" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8258,10 +8189,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F174" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -8287,10 +8218,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F175" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -8316,10 +8247,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F176" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -8345,10 +8276,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F177" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -8374,10 +8305,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F178" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -8403,10 +8334,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F179" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8432,10 +8363,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F180" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8461,10 +8392,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F181" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8490,10 +8421,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F182" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G182" t="n">
         <v>3</v>
@@ -8519,10 +8450,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F183" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8548,10 +8479,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F184" t="s">
-        <v>348</v>
+        <v>57</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8577,10 +8508,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F185" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -8606,10 +8537,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F186" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8635,10 +8566,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F187" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8664,10 +8595,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F188" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8693,10 +8624,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F189" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8722,10 +8653,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F190" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8751,10 +8682,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F191" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="G191" t="n">
         <v>4</v>
@@ -8780,10 +8711,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F192" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8809,10 +8740,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F193" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8838,10 +8769,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F194" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8867,10 +8798,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F195" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8896,10 +8827,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F196" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8925,10 +8856,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F197" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8954,10 +8885,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F198" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8983,10 +8914,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F199" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="G199" t="n">
         <v>2</v>
@@ -9012,10 +8943,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F200" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -9041,10 +8972,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F201" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -9070,10 +9001,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F202" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -9099,10 +9030,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F203" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -9128,10 +9059,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F204" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -9157,10 +9088,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="F205" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -9186,10 +9117,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="F206" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -9215,10 +9146,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="F207" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -9244,10 +9175,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="F208" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="G208" t="n">
         <v>3</v>
@@ -9273,10 +9204,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F209" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="G209" t="n">
         <v>2</v>
@@ -9302,10 +9233,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="F210" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -9331,10 +9262,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F211" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -9360,10 +9291,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="F212" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9389,10 +9320,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="F213" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9418,10 +9349,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="F214" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9447,10 +9378,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="F215" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9476,10 +9407,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F216" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9505,10 +9436,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F217" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9534,10 +9465,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="F218" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9563,10 +9494,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="F219" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9592,10 +9523,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F220" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9621,10 +9552,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="F221" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9650,10 +9581,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="F222" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9679,10 +9610,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="F223" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="G223" t="n">
         <v>5</v>
@@ -9708,10 +9639,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="F224" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9737,10 +9668,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="F225" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9766,10 +9697,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="F226" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9795,10 +9726,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="F227" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="G227" t="n">
         <v>2</v>
@@ -9824,10 +9755,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F228" t="s">
-        <v>434</v>
+        <v>246</v>
       </c>
       <c r="G228" t="n">
         <v>7</v>
@@ -9853,10 +9784,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="F229" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="G229" t="n">
         <v>11</v>
@@ -9882,10 +9813,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="F230" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="G230" t="n">
         <v>2</v>
@@ -9911,10 +9842,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="F231" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="G231" t="n">
         <v>7</v>
@@ -9940,10 +9871,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="F232" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="G232" t="n">
         <v>4</v>
@@ -9969,10 +9900,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="F233" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="G233" t="n">
         <v>3</v>
@@ -9998,10 +9929,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="F234" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="G234" t="n">
         <v>3</v>
@@ -10027,10 +9958,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="F235" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G235" t="n">
         <v>2</v>
@@ -10056,10 +9987,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="F236" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="G236" t="n">
         <v>6</v>
@@ -10085,10 +10016,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="F237" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="G237" t="n">
         <v>6</v>
@@ -10114,10 +10045,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="F238" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="G238" t="n">
         <v>2</v>
@@ -10143,10 +10074,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="F239" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="G239" t="n">
         <v>3</v>
@@ -10172,10 +10103,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="F240" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="G240" t="n">
         <v>4</v>
@@ -10201,10 +10132,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="F241" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="G241" t="n">
         <v>6</v>
@@ -10230,10 +10161,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="F242" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="G242" t="n">
         <v>5</v>
@@ -10259,10 +10190,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="F243" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="G243" t="n">
         <v>3</v>
@@ -10288,10 +10219,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="F244" t="s">
-        <v>466</v>
+        <v>155</v>
       </c>
       <c r="G244" t="n">
         <v>2</v>
@@ -10317,10 +10248,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F245" t="s">
-        <v>468</v>
+        <v>242</v>
       </c>
       <c r="G245" t="n">
         <v>6</v>
@@ -10346,10 +10277,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="F246" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="G246" t="n">
         <v>8</v>
@@ -10375,10 +10306,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="F247" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="G247" t="n">
         <v>4</v>
@@ -10404,10 +10335,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="F248" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G248" t="n">
         <v>2</v>
@@ -10433,10 +10364,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="F249" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="G249" t="n">
         <v>2</v>
@@ -10462,10 +10393,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="F250" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10491,10 +10422,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="F251" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="G251" t="n">
         <v>6</v>
@@ -10520,10 +10451,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="F252" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="G252" t="n">
         <v>3</v>
@@ -10549,10 +10480,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="F253" t="s">
-        <v>484</v>
+        <v>337</v>
       </c>
       <c r="G253" t="n">
         <v>6</v>
@@ -10578,10 +10509,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="F254" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="G254" t="n">
         <v>6</v>
@@ -10607,10 +10538,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="F255" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="G255" t="n">
         <v>7</v>
@@ -10636,10 +10567,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="F256" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="G256" t="n">
         <v>4</v>
@@ -10665,10 +10596,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="F257" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="G257" t="n">
         <v>3</v>
@@ -10694,10 +10625,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="F258" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10723,10 +10654,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="F259" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="G259" t="n">
         <v>4</v>
@@ -10752,10 +10683,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="F260" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10781,10 +10712,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="F261" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="G261" t="n">
         <v>3</v>
@@ -10810,10 +10741,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="F262" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="G262" t="n">
         <v>2</v>
@@ -10839,10 +10770,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="F263" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10868,10 +10799,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="F264" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="G264" t="n">
         <v>6</v>
@@ -10897,10 +10828,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F265" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="G265" t="n">
         <v>2</v>
@@ -10926,10 +10857,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="F266" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="G266" t="n">
         <v>4</v>
@@ -10955,10 +10886,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="F267" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="G267" t="n">
         <v>3</v>
@@ -10984,10 +10915,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="F268" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="G268" t="n">
         <v>4</v>
@@ -11013,10 +10944,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="F269" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="G269" t="n">
         <v>4</v>
@@ -11042,10 +10973,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="F270" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="G270" t="n">
         <v>2</v>
@@ -11071,10 +11002,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="F271" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="G271" t="n">
         <v>6</v>
@@ -11100,10 +11031,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="F272" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="G272" t="n">
         <v>5</v>
@@ -11129,10 +11060,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="F273" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="G273" t="n">
         <v>4</v>
@@ -11158,10 +11089,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="F274" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -11187,10 +11118,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="F275" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="G275" t="n">
         <v>2</v>
@@ -11216,10 +11147,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="F276" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="G276" t="n">
         <v>2</v>
@@ -11245,10 +11176,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="F277" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="G277" t="n">
         <v>7</v>
@@ -11274,10 +11205,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="F278" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="G278" t="n">
         <v>8</v>
@@ -11303,10 +11234,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="F279" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G279" t="n">
         <v>4</v>
@@ -11332,10 +11263,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="F280" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11361,10 +11292,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="F281" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11390,10 +11321,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="F282" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11419,10 +11350,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="F283" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11448,10 +11379,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="F284" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11477,10 +11408,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="F285" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11506,10 +11437,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="F286" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11535,10 +11466,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="F287" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11564,10 +11495,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="F288" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11593,10 +11524,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="F289" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="G289" t="n">
         <v>5</v>
@@ -11622,10 +11553,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="F290" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11651,10 +11582,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="F291" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11680,10 +11611,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="F292" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11709,10 +11640,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="F293" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11738,10 +11669,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="F294" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11767,10 +11698,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="F295" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11796,10 +11727,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="F296" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11825,10 +11756,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="F297" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11854,10 +11785,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="F298" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11883,10 +11814,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="F299" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11912,10 +11843,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="F300" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="G300" t="n">
         <v>6</v>
@@ -11941,10 +11872,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="F301" t="s">
-        <v>580</v>
+        <v>441</v>
       </c>
       <c r="G301" t="n">
         <v>2</v>
@@ -11970,10 +11901,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="F302" t="s">
-        <v>582</v>
+        <v>496</v>
       </c>
       <c r="G302" t="n">
         <v>6</v>
@@ -11999,10 +11930,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="F303" t="s">
-        <v>584</v>
+        <v>447</v>
       </c>
       <c r="G303" t="n">
         <v>4</v>
@@ -12028,10 +11959,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="F304" t="s">
-        <v>586</v>
+        <v>508</v>
       </c>
       <c r="G304" t="n">
         <v>3</v>
@@ -12057,10 +11988,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="F305" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="G305" t="n">
         <v>6</v>
@@ -12086,10 +12017,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="F306" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="G306" t="n">
         <v>4</v>
@@ -12115,10 +12046,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="F307" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="G307" t="n">
         <v>8</v>
@@ -12144,10 +12075,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="F308" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12173,10 +12104,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="F309" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12202,10 +12133,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="F310" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="G310" t="n">
         <v>3</v>
@@ -12231,10 +12162,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="F311" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12260,10 +12191,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="F312" t="s">
-        <v>600</v>
+        <v>449</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12289,10 +12220,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>601</v>
+        <v>584</v>
       </c>
       <c r="F313" t="s">
-        <v>602</v>
+        <v>431</v>
       </c>
       <c r="G313" t="n">
         <v>2</v>
@@ -12318,10 +12249,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="F314" t="s">
-        <v>604</v>
+        <v>455</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12347,10 +12278,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>605</v>
+        <v>586</v>
       </c>
       <c r="F315" t="s">
-        <v>606</v>
+        <v>587</v>
       </c>
       <c r="G315" t="n">
         <v>2</v>
@@ -12376,10 +12307,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>607</v>
+        <v>588</v>
       </c>
       <c r="F316" t="s">
-        <v>608</v>
+        <v>437</v>
       </c>
       <c r="G316" t="n">
         <v>2</v>
@@ -12405,10 +12336,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>609</v>
+        <v>589</v>
       </c>
       <c r="F317" t="s">
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="G317" t="n">
         <v>4</v>
@@ -12434,10 +12365,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
       <c r="F318" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="G318" t="n">
         <v>2</v>
@@ -12463,10 +12394,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="F319" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12492,10 +12423,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="F320" t="s">
-        <v>616</v>
+        <v>443</v>
       </c>
       <c r="G320" t="n">
         <v>2</v>
@@ -12521,10 +12452,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>617</v>
+        <v>596</v>
       </c>
       <c r="F321" t="s">
-        <v>618</v>
+        <v>597</v>
       </c>
       <c r="G321" t="n">
         <v>2</v>
@@ -12550,10 +12481,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="F322" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12579,10 +12510,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>621</v>
+        <v>600</v>
       </c>
       <c r="F323" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="G323" t="n">
         <v>5</v>
@@ -12608,10 +12539,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>623</v>
+        <v>602</v>
       </c>
       <c r="F324" t="s">
-        <v>624</v>
+        <v>603</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12637,10 +12568,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>625</v>
+        <v>604</v>
       </c>
       <c r="F325" t="s">
-        <v>626</v>
+        <v>605</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12666,10 +12597,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>627</v>
+        <v>606</v>
       </c>
       <c r="F326" t="s">
-        <v>628</v>
+        <v>607</v>
       </c>
       <c r="G326" t="n">
         <v>2</v>
@@ -12695,10 +12626,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>629</v>
+        <v>608</v>
       </c>
       <c r="F327" t="s">
-        <v>630</v>
+        <v>609</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12724,10 +12655,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>631</v>
+        <v>610</v>
       </c>
       <c r="F328" t="s">
-        <v>632</v>
+        <v>611</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12753,10 +12684,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>633</v>
+        <v>612</v>
       </c>
       <c r="F329" t="s">
-        <v>634</v>
+        <v>613</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12782,10 +12713,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>635</v>
+        <v>614</v>
       </c>
       <c r="F330" t="s">
-        <v>636</v>
+        <v>615</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12811,10 +12742,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>637</v>
+        <v>616</v>
       </c>
       <c r="F331" t="s">
-        <v>638</v>
+        <v>617</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12840,10 +12771,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>639</v>
+        <v>618</v>
       </c>
       <c r="F332" t="s">
-        <v>640</v>
+        <v>619</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12869,10 +12800,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>641</v>
+        <v>620</v>
       </c>
       <c r="F333" t="s">
-        <v>642</v>
+        <v>621</v>
       </c>
       <c r="G333" t="n">
         <v>2</v>
@@ -12898,10 +12829,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="F334" t="s">
-        <v>644</v>
+        <v>623</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12927,10 +12858,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>645</v>
+        <v>624</v>
       </c>
       <c r="F335" t="s">
-        <v>646</v>
+        <v>625</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12956,10 +12887,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>647</v>
+        <v>626</v>
       </c>
       <c r="F336" t="s">
-        <v>648</v>
+        <v>627</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12985,10 +12916,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>649</v>
+        <v>628</v>
       </c>
       <c r="F337" t="s">
-        <v>650</v>
+        <v>629</v>
       </c>
       <c r="G337" t="n">
         <v>2</v>
@@ -13014,10 +12945,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>651</v>
+        <v>630</v>
       </c>
       <c r="F338" t="s">
-        <v>652</v>
+        <v>631</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -13043,10 +12974,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>653</v>
+        <v>632</v>
       </c>
       <c r="F339" t="s">
-        <v>654</v>
+        <v>633</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13072,10 +13003,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
       <c r="F340" t="s">
-        <v>656</v>
+        <v>635</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13101,10 +13032,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>657</v>
+        <v>636</v>
       </c>
       <c r="F341" t="s">
-        <v>658</v>
+        <v>637</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -13130,10 +13061,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>659</v>
+        <v>638</v>
       </c>
       <c r="F342" t="s">
-        <v>660</v>
+        <v>639</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -13159,10 +13090,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>661</v>
+        <v>640</v>
       </c>
       <c r="F343" t="s">
-        <v>662</v>
+        <v>641</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13188,10 +13119,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>663</v>
+        <v>642</v>
       </c>
       <c r="F344" t="s">
-        <v>664</v>
+        <v>643</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13217,10 +13148,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>665</v>
+        <v>644</v>
       </c>
       <c r="F345" t="s">
-        <v>666</v>
+        <v>645</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13246,10 +13177,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>667</v>
+        <v>646</v>
       </c>
       <c r="F346" t="s">
-        <v>668</v>
+        <v>647</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13275,10 +13206,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>669</v>
+        <v>648</v>
       </c>
       <c r="F347" t="s">
-        <v>670</v>
+        <v>649</v>
       </c>
       <c r="G347" t="n">
         <v>2</v>
@@ -13304,10 +13235,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>671</v>
+        <v>650</v>
       </c>
       <c r="F348" t="s">
-        <v>672</v>
+        <v>651</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13333,10 +13264,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>673</v>
+        <v>652</v>
       </c>
       <c r="F349" t="s">
-        <v>674</v>
+        <v>653</v>
       </c>
       <c r="G349" t="n">
         <v>4</v>
@@ -13362,10 +13293,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>675</v>
+        <v>654</v>
       </c>
       <c r="F350" t="s">
-        <v>676</v>
+        <v>655</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13391,10 +13322,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>677</v>
+        <v>656</v>
       </c>
       <c r="F351" t="s">
-        <v>678</v>
+        <v>657</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13420,10 +13351,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>679</v>
+        <v>658</v>
       </c>
       <c r="F352" t="s">
-        <v>680</v>
+        <v>659</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13449,10 +13380,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>681</v>
+        <v>660</v>
       </c>
       <c r="F353" t="s">
-        <v>682</v>
+        <v>661</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13478,10 +13409,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>683</v>
+        <v>662</v>
       </c>
       <c r="F354" t="s">
-        <v>684</v>
+        <v>663</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13507,10 +13438,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>685</v>
+        <v>664</v>
       </c>
       <c r="F355" t="s">
-        <v>686</v>
+        <v>665</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13536,10 +13467,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>687</v>
+        <v>666</v>
       </c>
       <c r="F356" t="s">
-        <v>688</v>
+        <v>667</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13565,10 +13496,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>689</v>
+        <v>668</v>
       </c>
       <c r="F357" t="s">
-        <v>690</v>
+        <v>669</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13594,10 +13525,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>691</v>
+        <v>670</v>
       </c>
       <c r="F358" t="s">
-        <v>692</v>
+        <v>671</v>
       </c>
       <c r="G358" t="n">
         <v>4</v>
@@ -13623,10 +13554,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>693</v>
+        <v>672</v>
       </c>
       <c r="F359" t="s">
-        <v>694</v>
+        <v>673</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13652,10 +13583,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>695</v>
+        <v>674</v>
       </c>
       <c r="F360" t="s">
-        <v>696</v>
+        <v>675</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13681,10 +13612,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>697</v>
+        <v>676</v>
       </c>
       <c r="F361" t="s">
-        <v>698</v>
+        <v>677</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13710,10 +13641,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>699</v>
+        <v>678</v>
       </c>
       <c r="F362" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13739,10 +13670,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>701</v>
+        <v>680</v>
       </c>
       <c r="F363" t="s">
-        <v>702</v>
+        <v>681</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13768,10 +13699,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>703</v>
+        <v>682</v>
       </c>
       <c r="F364" t="s">
-        <v>704</v>
+        <v>683</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13797,10 +13728,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>705</v>
+        <v>684</v>
       </c>
       <c r="F365" t="s">
-        <v>706</v>
+        <v>685</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13826,10 +13757,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>707</v>
+        <v>686</v>
       </c>
       <c r="F366" t="s">
-        <v>708</v>
+        <v>687</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13855,10 +13786,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>709</v>
+        <v>688</v>
       </c>
       <c r="F367" t="s">
-        <v>710</v>
+        <v>689</v>
       </c>
       <c r="G367" t="n">
         <v>5</v>
@@ -13884,10 +13815,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>711</v>
+        <v>690</v>
       </c>
       <c r="F368" t="s">
-        <v>712</v>
+        <v>691</v>
       </c>
       <c r="G368" t="n">
         <v>2</v>
@@ -13913,10 +13844,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>713</v>
+        <v>692</v>
       </c>
       <c r="F369" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="G369" t="n">
         <v>2</v>
@@ -13942,10 +13873,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>715</v>
+        <v>694</v>
       </c>
       <c r="F370" t="s">
-        <v>716</v>
+        <v>695</v>
       </c>
       <c r="G370" t="n">
         <v>2</v>
@@ -13971,10 +13902,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>717</v>
+        <v>696</v>
       </c>
       <c r="F371" t="s">
-        <v>718</v>
+        <v>697</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -14000,10 +13931,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>719</v>
+        <v>698</v>
       </c>
       <c r="F372" t="s">
-        <v>720</v>
+        <v>699</v>
       </c>
       <c r="G372" t="n">
         <v>2</v>
@@ -14029,10 +13960,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>721</v>
+        <v>700</v>
       </c>
       <c r="F373" t="s">
-        <v>722</v>
+        <v>701</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -14058,10 +13989,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="F374" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="G374" t="n">
         <v>3</v>
@@ -14087,10 +14018,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>723</v>
+        <v>702</v>
       </c>
       <c r="F375" t="s">
-        <v>724</v>
+        <v>703</v>
       </c>
       <c r="G375" t="n">
         <v>2</v>
@@ -14116,10 +14047,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>725</v>
+        <v>704</v>
       </c>
       <c r="F376" t="s">
-        <v>726</v>
+        <v>705</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -14145,10 +14076,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>727</v>
+        <v>706</v>
       </c>
       <c r="F377" t="s">
-        <v>728</v>
+        <v>707</v>
       </c>
       <c r="G377" t="n">
         <v>3</v>
@@ -14174,10 +14105,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>729</v>
+        <v>708</v>
       </c>
       <c r="F378" t="s">
-        <v>730</v>
+        <v>709</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14203,10 +14134,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>731</v>
+        <v>710</v>
       </c>
       <c r="F379" t="s">
-        <v>732</v>
+        <v>711</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14232,10 +14163,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>733</v>
+        <v>712</v>
       </c>
       <c r="F380" t="s">
-        <v>734</v>
+        <v>713</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14261,10 +14192,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>735</v>
+        <v>714</v>
       </c>
       <c r="F381" t="s">
-        <v>736</v>
+        <v>715</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14290,10 +14221,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>737</v>
+        <v>716</v>
       </c>
       <c r="F382" t="s">
-        <v>738</v>
+        <v>717</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14319,10 +14250,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>739</v>
+        <v>718</v>
       </c>
       <c r="F383" t="s">
-        <v>740</v>
+        <v>719</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14348,10 +14279,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>741</v>
+        <v>720</v>
       </c>
       <c r="F384" t="s">
-        <v>742</v>
+        <v>721</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14377,10 +14308,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>743</v>
+        <v>722</v>
       </c>
       <c r="F385" t="s">
-        <v>744</v>
+        <v>723</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14406,10 +14337,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>745</v>
+        <v>724</v>
       </c>
       <c r="F386" t="s">
-        <v>746</v>
+        <v>725</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14435,10 +14366,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>747</v>
+        <v>726</v>
       </c>
       <c r="F387" t="s">
-        <v>748</v>
+        <v>727</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14464,10 +14395,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>749</v>
+        <v>728</v>
       </c>
       <c r="F388" t="s">
-        <v>750</v>
+        <v>729</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14493,10 +14424,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="F389" t="s">
-        <v>752</v>
+        <v>731</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14522,10 +14453,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>753</v>
+        <v>732</v>
       </c>
       <c r="F390" t="s">
-        <v>754</v>
+        <v>733</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14551,10 +14482,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>755</v>
+        <v>734</v>
       </c>
       <c r="F391" t="s">
-        <v>756</v>
+        <v>735</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14580,10 +14511,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>757</v>
+        <v>736</v>
       </c>
       <c r="F392" t="s">
-        <v>758</v>
+        <v>737</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14609,10 +14540,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>759</v>
+        <v>738</v>
       </c>
       <c r="F393" t="s">
-        <v>760</v>
+        <v>739</v>
       </c>
       <c r="G393" t="n">
         <v>2</v>
@@ -14638,10 +14569,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>761</v>
+        <v>740</v>
       </c>
       <c r="F394" t="s">
-        <v>762</v>
+        <v>741</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14667,10 +14598,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>763</v>
+        <v>742</v>
       </c>
       <c r="F395" t="s">
-        <v>764</v>
+        <v>743</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14696,10 +14627,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>765</v>
+        <v>744</v>
       </c>
       <c r="F396" t="s">
-        <v>766</v>
+        <v>745</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14725,10 +14656,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>767</v>
+        <v>746</v>
       </c>
       <c r="F397" t="s">
-        <v>768</v>
+        <v>747</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14754,10 +14685,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="F398" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14783,10 +14714,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>769</v>
+        <v>748</v>
       </c>
       <c r="F399" t="s">
-        <v>770</v>
+        <v>749</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14812,10 +14743,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>771</v>
+        <v>750</v>
       </c>
       <c r="F400" t="s">
-        <v>772</v>
+        <v>751</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14841,10 +14772,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>773</v>
+        <v>752</v>
       </c>
       <c r="F401" t="s">
-        <v>774</v>
+        <v>753</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14870,10 +14801,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>775</v>
+        <v>754</v>
       </c>
       <c r="F402" t="s">
-        <v>776</v>
+        <v>755</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14899,10 +14830,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>777</v>
+        <v>756</v>
       </c>
       <c r="F403" t="s">
-        <v>778</v>
+        <v>757</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14928,10 +14859,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>779</v>
+        <v>758</v>
       </c>
       <c r="F404" t="s">
-        <v>780</v>
+        <v>759</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14957,10 +14888,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="F405" t="s">
-        <v>782</v>
+        <v>761</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14986,10 +14917,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>783</v>
+        <v>762</v>
       </c>
       <c r="F406" t="s">
-        <v>784</v>
+        <v>763</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15015,10 +14946,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>785</v>
+        <v>764</v>
       </c>
       <c r="F407" t="s">
-        <v>786</v>
+        <v>765</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -15044,10 +14975,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>787</v>
+        <v>766</v>
       </c>
       <c r="F408" t="s">
-        <v>788</v>
+        <v>767</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15073,10 +15004,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>789</v>
+        <v>768</v>
       </c>
       <c r="F409" t="s">
-        <v>790</v>
+        <v>769</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15102,10 +15033,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>791</v>
+        <v>770</v>
       </c>
       <c r="F410" t="s">
-        <v>792</v>
+        <v>771</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15131,10 +15062,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>793</v>
+        <v>772</v>
       </c>
       <c r="F411" t="s">
-        <v>794</v>
+        <v>773</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15160,10 +15091,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>795</v>
+        <v>774</v>
       </c>
       <c r="F412" t="s">
-        <v>796</v>
+        <v>775</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15189,10 +15120,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>797</v>
+        <v>776</v>
       </c>
       <c r="F413" t="s">
-        <v>798</v>
+        <v>777</v>
       </c>
       <c r="G413" t="n">
         <v>5</v>
@@ -15218,10 +15149,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>799</v>
+        <v>778</v>
       </c>
       <c r="F414" t="s">
-        <v>800</v>
+        <v>779</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15247,10 +15178,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>801</v>
+        <v>780</v>
       </c>
       <c r="F415" t="s">
-        <v>802</v>
+        <v>781</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15276,10 +15207,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>803</v>
+        <v>782</v>
       </c>
       <c r="F416" t="s">
-        <v>804</v>
+        <v>783</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15305,10 +15236,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>805</v>
+        <v>784</v>
       </c>
       <c r="F417" t="s">
-        <v>806</v>
+        <v>785</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15334,10 +15265,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>807</v>
+        <v>786</v>
       </c>
       <c r="F418" t="s">
-        <v>808</v>
+        <v>787</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15363,10 +15294,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="F419" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15392,10 +15323,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>809</v>
+        <v>788</v>
       </c>
       <c r="F420" t="s">
-        <v>810</v>
+        <v>789</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15421,10 +15352,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>811</v>
+        <v>790</v>
       </c>
       <c r="F421" t="s">
-        <v>812</v>
+        <v>791</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15450,10 +15381,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>813</v>
+        <v>792</v>
       </c>
       <c r="F422" t="s">
-        <v>814</v>
+        <v>793</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15479,10 +15410,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>815</v>
+        <v>794</v>
       </c>
       <c r="F423" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15508,10 +15439,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>817</v>
+        <v>796</v>
       </c>
       <c r="F424" t="s">
-        <v>818</v>
+        <v>797</v>
       </c>
       <c r="G424" t="n">
         <v>3</v>
@@ -15537,10 +15468,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>819</v>
+        <v>798</v>
       </c>
       <c r="F425" t="s">
-        <v>820</v>
+        <v>799</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15566,10 +15497,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>821</v>
+        <v>800</v>
       </c>
       <c r="F426" t="s">
-        <v>822</v>
+        <v>801</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15595,10 +15526,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>823</v>
+        <v>802</v>
       </c>
       <c r="F427" t="s">
-        <v>824</v>
+        <v>803</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15624,10 +15555,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>825</v>
+        <v>804</v>
       </c>
       <c r="F428" t="s">
-        <v>826</v>
+        <v>805</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15653,10 +15584,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>827</v>
+        <v>806</v>
       </c>
       <c r="F429" t="s">
-        <v>828</v>
+        <v>807</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15682,10 +15613,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>829</v>
+        <v>808</v>
       </c>
       <c r="F430" t="s">
-        <v>830</v>
+        <v>809</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15711,10 +15642,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>831</v>
+        <v>810</v>
       </c>
       <c r="F431" t="s">
-        <v>832</v>
+        <v>811</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15740,10 +15671,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="F432" t="s">
-        <v>834</v>
+        <v>813</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15769,10 +15700,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="F433" t="s">
-        <v>836</v>
+        <v>815</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15798,10 +15729,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>837</v>
+        <v>816</v>
       </c>
       <c r="F434" t="s">
-        <v>838</v>
+        <v>817</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -15827,10 +15758,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>839</v>
+        <v>818</v>
       </c>
       <c r="F435" t="s">
-        <v>840</v>
+        <v>819</v>
       </c>
       <c r="G435" t="n">
         <v>2</v>
@@ -15856,10 +15787,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>841</v>
+        <v>820</v>
       </c>
       <c r="F436" t="s">
-        <v>842</v>
+        <v>821</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -15885,10 +15816,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>843</v>
+        <v>822</v>
       </c>
       <c r="F437" t="s">
-        <v>844</v>
+        <v>823</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -15914,10 +15845,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>845</v>
+        <v>824</v>
       </c>
       <c r="F438" t="s">
-        <v>846</v>
+        <v>825</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -15943,10 +15874,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>847</v>
+        <v>826</v>
       </c>
       <c r="F439" t="s">
-        <v>848</v>
+        <v>827</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -15972,10 +15903,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>849</v>
+        <v>828</v>
       </c>
       <c r="F440" t="s">
-        <v>850</v>
+        <v>335</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -16001,10 +15932,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>851</v>
+        <v>829</v>
       </c>
       <c r="F441" t="s">
-        <v>852</v>
+        <v>830</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16030,10 +15961,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>853</v>
+        <v>831</v>
       </c>
       <c r="F442" t="s">
-        <v>854</v>
+        <v>832</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16059,10 +15990,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>855</v>
+        <v>833</v>
       </c>
       <c r="F443" t="s">
-        <v>856</v>
+        <v>834</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16088,10 +16019,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>857</v>
+        <v>835</v>
       </c>
       <c r="F444" t="s">
-        <v>858</v>
+        <v>836</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16117,10 +16048,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>859</v>
+        <v>837</v>
       </c>
       <c r="F445" t="s">
-        <v>860</v>
+        <v>838</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16146,10 +16077,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>861</v>
+        <v>839</v>
       </c>
       <c r="F446" t="s">
-        <v>862</v>
+        <v>840</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16175,10 +16106,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>863</v>
+        <v>841</v>
       </c>
       <c r="F447" t="s">
-        <v>864</v>
+        <v>842</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16204,10 +16135,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>865</v>
+        <v>843</v>
       </c>
       <c r="F448" t="s">
-        <v>866</v>
+        <v>844</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16233,10 +16164,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>867</v>
+        <v>845</v>
       </c>
       <c r="F449" t="s">
-        <v>868</v>
+        <v>846</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16262,10 +16193,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>869</v>
+        <v>847</v>
       </c>
       <c r="F450" t="s">
-        <v>870</v>
+        <v>848</v>
       </c>
       <c r="G450" t="n">
         <v>3</v>
@@ -16291,10 +16222,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>871</v>
+        <v>849</v>
       </c>
       <c r="F451" t="s">
-        <v>872</v>
+        <v>850</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16320,10 +16251,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>873</v>
+        <v>851</v>
       </c>
       <c r="F452" t="s">
-        <v>874</v>
+        <v>852</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16349,10 +16280,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>875</v>
+        <v>853</v>
       </c>
       <c r="F453" t="s">
-        <v>876</v>
+        <v>854</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16378,10 +16309,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>877</v>
+        <v>855</v>
       </c>
       <c r="F454" t="s">
-        <v>878</v>
+        <v>516</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16407,10 +16338,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>877</v>
+        <v>855</v>
       </c>
       <c r="F455" t="s">
-        <v>878</v>
+        <v>516</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16436,10 +16367,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>879</v>
+        <v>856</v>
       </c>
       <c r="F456" t="s">
-        <v>880</v>
+        <v>857</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16465,10 +16396,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>881</v>
+        <v>858</v>
       </c>
       <c r="F457" t="s">
-        <v>882</v>
+        <v>859</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16494,10 +16425,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>883</v>
+        <v>860</v>
       </c>
       <c r="F458" t="s">
-        <v>884</v>
+        <v>861</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16523,10 +16454,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>885</v>
+        <v>862</v>
       </c>
       <c r="F459" t="s">
-        <v>886</v>
+        <v>863</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16552,10 +16483,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>887</v>
+        <v>864</v>
       </c>
       <c r="F460" t="s">
-        <v>888</v>
+        <v>865</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16581,10 +16512,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>889</v>
+        <v>866</v>
       </c>
       <c r="F461" t="s">
-        <v>890</v>
+        <v>867</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -16610,10 +16541,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>891</v>
+        <v>868</v>
       </c>
       <c r="F462" t="s">
-        <v>892</v>
+        <v>869</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -16639,10 +16570,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>893</v>
+        <v>870</v>
       </c>
       <c r="F463" t="s">
-        <v>894</v>
+        <v>871</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -16668,10 +16599,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>895</v>
+        <v>872</v>
       </c>
       <c r="F464" t="s">
-        <v>896</v>
+        <v>873</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -16697,10 +16628,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>897</v>
+        <v>874</v>
       </c>
       <c r="F465" t="s">
-        <v>898</v>
+        <v>875</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -16726,10 +16657,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>899</v>
+        <v>876</v>
       </c>
       <c r="F466" t="s">
-        <v>900</v>
+        <v>877</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -16755,10 +16686,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>901</v>
+        <v>878</v>
       </c>
       <c r="F467" t="s">
-        <v>902</v>
+        <v>879</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -16784,10 +16715,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>903</v>
+        <v>880</v>
       </c>
       <c r="F468" t="s">
-        <v>904</v>
+        <v>881</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -16813,10 +16744,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>905</v>
+        <v>882</v>
       </c>
       <c r="F469" t="s">
-        <v>906</v>
+        <v>883</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -16842,10 +16773,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>907</v>
+        <v>884</v>
       </c>
       <c r="F470" t="s">
-        <v>908</v>
+        <v>885</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -16871,10 +16802,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>909</v>
+        <v>886</v>
       </c>
       <c r="F471" t="s">
-        <v>910</v>
+        <v>887</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -16900,10 +16831,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>911</v>
+        <v>888</v>
       </c>
       <c r="F472" t="s">
-        <v>912</v>
+        <v>889</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -16929,10 +16860,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>913</v>
+        <v>890</v>
       </c>
       <c r="F473" t="s">
-        <v>914</v>
+        <v>891</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -16958,10 +16889,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>915</v>
+        <v>892</v>
       </c>
       <c r="F474" t="s">
-        <v>916</v>
+        <v>893</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -16987,10 +16918,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>917</v>
+        <v>894</v>
       </c>
       <c r="F475" t="s">
-        <v>918</v>
+        <v>895</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17016,10 +16947,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>919</v>
+        <v>896</v>
       </c>
       <c r="F476" t="s">
-        <v>920</v>
+        <v>897</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17045,10 +16976,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>921</v>
+        <v>898</v>
       </c>
       <c r="F477" t="s">
-        <v>922</v>
+        <v>899</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17074,10 +17005,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>923</v>
+        <v>900</v>
       </c>
       <c r="F478" t="s">
-        <v>924</v>
+        <v>901</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17103,10 +17034,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>925</v>
+        <v>902</v>
       </c>
       <c r="F479" t="s">
-        <v>926</v>
+        <v>903</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17132,10 +17063,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>927</v>
+        <v>904</v>
       </c>
       <c r="F480" t="s">
-        <v>928</v>
+        <v>905</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17161,10 +17092,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>929</v>
+        <v>906</v>
       </c>
       <c r="F481" t="s">
-        <v>930</v>
+        <v>907</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17190,10 +17121,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>931</v>
+        <v>908</v>
       </c>
       <c r="F482" t="s">
-        <v>932</v>
+        <v>909</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17219,10 +17150,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>933</v>
+        <v>910</v>
       </c>
       <c r="F483" t="s">
-        <v>934</v>
+        <v>911</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17248,10 +17179,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>935</v>
+        <v>912</v>
       </c>
       <c r="F484" t="s">
-        <v>936</v>
+        <v>913</v>
       </c>
       <c r="G484" t="n">
         <v>3</v>
@@ -17277,10 +17208,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>937</v>
+        <v>914</v>
       </c>
       <c r="F485" t="s">
-        <v>938</v>
+        <v>915</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17306,10 +17237,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>939</v>
+        <v>916</v>
       </c>
       <c r="F486" t="s">
-        <v>940</v>
+        <v>917</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -17335,10 +17266,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>941</v>
+        <v>918</v>
       </c>
       <c r="F487" t="s">
-        <v>942</v>
+        <v>919</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -17364,10 +17295,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>943</v>
+        <v>920</v>
       </c>
       <c r="F488" t="s">
-        <v>944</v>
+        <v>921</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -17393,10 +17324,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>945</v>
+        <v>922</v>
       </c>
       <c r="F489" t="s">
-        <v>946</v>
+        <v>923</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -17422,10 +17353,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>947</v>
+        <v>924</v>
       </c>
       <c r="F490" t="s">
-        <v>948</v>
+        <v>925</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -17451,10 +17382,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>949</v>
+        <v>926</v>
       </c>
       <c r="F491" t="s">
-        <v>950</v>
+        <v>927</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -17480,10 +17411,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>951</v>
+        <v>928</v>
       </c>
       <c r="F492" t="s">
-        <v>952</v>
+        <v>929</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>

--- a/xlsx/捷克_intext.xlsx
+++ b/xlsx/捷克_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="967">
   <si>
     <t>捷克</t>
   </si>
@@ -29,7 +29,7 @@
     <t>捷克語</t>
   </si>
   <si>
-    <t>政策_政策_美國_捷克</t>
+    <t>体育运动_体育运动_欧洲议会_捷克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E6%97%97</t>
@@ -1352,10 +1352,34 @@
     <t>英国</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>爱尔兰共和国</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>苏格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>威爾士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>北爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E7%8E%8B%E5%9B%BD</t>
@@ -1448,10 +1472,10 @@
     <t>东欧</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
-  </si>
-  <si>
-    <t>歐俄</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E5%8A%A0%E7%9B%9F%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>苏联加盟共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
@@ -1460,6 +1484,12 @@
     <t>俄罗斯</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E4%BF%84%E7%BE%85%E6%96%AF</t>
+  </si>
+  <si>
+    <t>歐洲俄羅斯</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
   </si>
   <si>
@@ -1496,10 +1526,10 @@
     <t>摩尔多瓦</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2</t>
-  </si>
-  <si>
-    <t>巴尔干</t>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2%E5%8D%8A%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>巴尔干半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
@@ -1592,18 +1622,18 @@
     <t>義大利</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
+  </si>
+  <si>
+    <t>梵蒂岡</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
   </si>
   <si>
     <t>聖座</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
-  </si>
-  <si>
-    <t>梵蒂岡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
   </si>
   <si>
@@ -1628,10 +1658,10 @@
     <t>安道尔</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>屬地</t>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%A4%96%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>海外属地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
@@ -1682,16 +1712,22 @@
     <t>馬爾他騎士團</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
+  </si>
+  <si>
+    <t>色雷斯</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
   </si>
   <si>
     <t>土耳其</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
-  </si>
-  <si>
-    <t>色雷斯</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>西哈萨克斯坦州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
@@ -1700,10 +1736,10 @@
     <t>哈萨克斯坦</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>西哈萨克斯坦州</t>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>高加索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
@@ -2874,6 +2910,12 @@
   </si>
   <si>
     <t>國立國會圖書館</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
+  </si>
+  <si>
+    <t>捷克国家图书馆</t>
   </si>
 </sst>
 </file>
@@ -3222,7 +3264,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I492"/>
+  <dimension ref="A1:I499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3392,7 +3434,7 @@
         <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
         <v>4</v>
@@ -6350,7 +6392,7 @@
         <v>216</v>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H108" t="s">
         <v>4</v>
@@ -10004,7 +10046,7 @@
         <v>446</v>
       </c>
       <c r="G234" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H234" t="s">
         <v>4</v>
@@ -10033,7 +10075,7 @@
         <v>448</v>
       </c>
       <c r="G235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H235" t="s">
         <v>4</v>
@@ -10062,7 +10104,7 @@
         <v>450</v>
       </c>
       <c r="G236" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H236" t="s">
         <v>4</v>
@@ -10091,7 +10133,7 @@
         <v>452</v>
       </c>
       <c r="G237" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H237" t="s">
         <v>4</v>
@@ -10120,7 +10162,7 @@
         <v>454</v>
       </c>
       <c r="G238" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H238" t="s">
         <v>4</v>
@@ -10149,7 +10191,7 @@
         <v>456</v>
       </c>
       <c r="G239" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H239" t="s">
         <v>4</v>
@@ -10178,7 +10220,7 @@
         <v>458</v>
       </c>
       <c r="G240" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H240" t="s">
         <v>4</v>
@@ -10236,7 +10278,7 @@
         <v>462</v>
       </c>
       <c r="G242" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H242" t="s">
         <v>4</v>
@@ -10294,7 +10336,7 @@
         <v>466</v>
       </c>
       <c r="G244" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H244" t="s">
         <v>4</v>
@@ -10352,7 +10394,7 @@
         <v>470</v>
       </c>
       <c r="G246" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H246" t="s">
         <v>4</v>
@@ -10381,7 +10423,7 @@
         <v>472</v>
       </c>
       <c r="G247" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H247" t="s">
         <v>4</v>
@@ -10439,7 +10481,7 @@
         <v>476</v>
       </c>
       <c r="G249" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H249" t="s">
         <v>4</v>
@@ -10468,7 +10510,7 @@
         <v>478</v>
       </c>
       <c r="G250" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H250" t="s">
         <v>4</v>
@@ -10497,7 +10539,7 @@
         <v>480</v>
       </c>
       <c r="G251" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H251" t="s">
         <v>4</v>
@@ -10526,7 +10568,7 @@
         <v>482</v>
       </c>
       <c r="G252" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H252" t="s">
         <v>4</v>
@@ -10555,7 +10597,7 @@
         <v>484</v>
       </c>
       <c r="G253" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H253" t="s">
         <v>4</v>
@@ -10584,7 +10626,7 @@
         <v>486</v>
       </c>
       <c r="G254" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H254" t="s">
         <v>4</v>
@@ -10642,7 +10684,7 @@
         <v>490</v>
       </c>
       <c r="G256" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H256" t="s">
         <v>4</v>
@@ -10700,7 +10742,7 @@
         <v>494</v>
       </c>
       <c r="G258" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H258" t="s">
         <v>4</v>
@@ -10729,7 +10771,7 @@
         <v>496</v>
       </c>
       <c r="G259" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H259" t="s">
         <v>4</v>
@@ -10758,7 +10800,7 @@
         <v>498</v>
       </c>
       <c r="G260" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H260" t="s">
         <v>4</v>
@@ -10787,7 +10829,7 @@
         <v>500</v>
       </c>
       <c r="G261" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H261" t="s">
         <v>4</v>
@@ -10816,7 +10858,7 @@
         <v>502</v>
       </c>
       <c r="G262" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H262" t="s">
         <v>4</v>
@@ -10874,7 +10916,7 @@
         <v>506</v>
       </c>
       <c r="G264" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H264" t="s">
         <v>4</v>
@@ -10903,7 +10945,7 @@
         <v>508</v>
       </c>
       <c r="G265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H265" t="s">
         <v>4</v>
@@ -10932,7 +10974,7 @@
         <v>510</v>
       </c>
       <c r="G266" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H266" t="s">
         <v>4</v>
@@ -10961,7 +11003,7 @@
         <v>512</v>
       </c>
       <c r="G267" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H267" t="s">
         <v>4</v>
@@ -10990,7 +11032,7 @@
         <v>514</v>
       </c>
       <c r="G268" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H268" t="s">
         <v>4</v>
@@ -11019,7 +11061,7 @@
         <v>516</v>
       </c>
       <c r="G269" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H269" t="s">
         <v>4</v>
@@ -11077,7 +11119,7 @@
         <v>520</v>
       </c>
       <c r="G271" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H271" t="s">
         <v>4</v>
@@ -11106,7 +11148,7 @@
         <v>522</v>
       </c>
       <c r="G272" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H272" t="s">
         <v>4</v>
@@ -11164,7 +11206,7 @@
         <v>526</v>
       </c>
       <c r="G274" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H274" t="s">
         <v>4</v>
@@ -11222,7 +11264,7 @@
         <v>530</v>
       </c>
       <c r="G276" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H276" t="s">
         <v>4</v>
@@ -11251,7 +11293,7 @@
         <v>532</v>
       </c>
       <c r="G277" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H277" t="s">
         <v>4</v>
@@ -11280,7 +11322,7 @@
         <v>534</v>
       </c>
       <c r="G278" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H278" t="s">
         <v>4</v>
@@ -11309,7 +11351,7 @@
         <v>536</v>
       </c>
       <c r="G279" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H279" t="s">
         <v>4</v>
@@ -11367,7 +11409,7 @@
         <v>540</v>
       </c>
       <c r="G281" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H281" t="s">
         <v>4</v>
@@ -11396,7 +11438,7 @@
         <v>542</v>
       </c>
       <c r="G282" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H282" t="s">
         <v>4</v>
@@ -11425,7 +11467,7 @@
         <v>544</v>
       </c>
       <c r="G283" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H283" t="s">
         <v>4</v>
@@ -11454,7 +11496,7 @@
         <v>546</v>
       </c>
       <c r="G284" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H284" t="s">
         <v>4</v>
@@ -11599,7 +11641,7 @@
         <v>556</v>
       </c>
       <c r="G289" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H289" t="s">
         <v>4</v>
@@ -11773,7 +11815,7 @@
         <v>568</v>
       </c>
       <c r="G295" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H295" t="s">
         <v>4</v>
@@ -11918,7 +11960,7 @@
         <v>578</v>
       </c>
       <c r="G300" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H300" t="s">
         <v>4</v>
@@ -11947,7 +11989,7 @@
         <v>580</v>
       </c>
       <c r="G301" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H301" t="s">
         <v>4</v>
@@ -11976,7 +12018,7 @@
         <v>582</v>
       </c>
       <c r="G302" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H302" t="s">
         <v>4</v>
@@ -12005,7 +12047,7 @@
         <v>584</v>
       </c>
       <c r="G303" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H303" t="s">
         <v>4</v>
@@ -12034,7 +12076,7 @@
         <v>586</v>
       </c>
       <c r="G304" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H304" t="s">
         <v>4</v>
@@ -12063,7 +12105,7 @@
         <v>588</v>
       </c>
       <c r="G305" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H305" t="s">
         <v>4</v>
@@ -12092,7 +12134,7 @@
         <v>590</v>
       </c>
       <c r="G306" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H306" t="s">
         <v>4</v>
@@ -12115,13 +12157,13 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>443</v>
+        <v>591</v>
       </c>
       <c r="F307" t="s">
-        <v>444</v>
+        <v>592</v>
       </c>
       <c r="G307" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H307" t="s">
         <v>4</v>
@@ -12144,13 +12186,13 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="F308" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="G308" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H308" t="s">
         <v>4</v>
@@ -12173,13 +12215,13 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="F309" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="G309" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H309" t="s">
         <v>4</v>
@@ -12202,10 +12244,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="F310" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="G310" t="n">
         <v>3</v>
@@ -12231,13 +12273,13 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="F311" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="G311" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H311" t="s">
         <v>4</v>
@@ -12260,13 +12302,13 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="F312" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="G312" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H312" t="s">
         <v>4</v>
@@ -12289,13 +12331,13 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>601</v>
+        <v>443</v>
       </c>
       <c r="F313" t="s">
-        <v>602</v>
+        <v>444</v>
       </c>
       <c r="G313" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H313" t="s">
         <v>4</v>
@@ -12353,7 +12395,7 @@
         <v>606</v>
       </c>
       <c r="G315" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H315" t="s">
         <v>4</v>
@@ -12382,7 +12424,7 @@
         <v>608</v>
       </c>
       <c r="G316" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H316" t="s">
         <v>4</v>
@@ -12411,7 +12453,7 @@
         <v>610</v>
       </c>
       <c r="G317" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H317" t="s">
         <v>4</v>
@@ -12440,7 +12482,7 @@
         <v>612</v>
       </c>
       <c r="G318" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H318" t="s">
         <v>4</v>
@@ -12469,7 +12511,7 @@
         <v>614</v>
       </c>
       <c r="G319" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H319" t="s">
         <v>4</v>
@@ -12498,7 +12540,7 @@
         <v>616</v>
       </c>
       <c r="G320" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H320" t="s">
         <v>4</v>
@@ -12556,7 +12598,7 @@
         <v>620</v>
       </c>
       <c r="G322" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H322" t="s">
         <v>4</v>
@@ -12585,7 +12627,7 @@
         <v>622</v>
       </c>
       <c r="G323" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H323" t="s">
         <v>4</v>
@@ -12614,7 +12656,7 @@
         <v>624</v>
       </c>
       <c r="G324" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H324" t="s">
         <v>4</v>
@@ -12701,7 +12743,7 @@
         <v>630</v>
       </c>
       <c r="G327" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H327" t="s">
         <v>4</v>
@@ -12759,7 +12801,7 @@
         <v>634</v>
       </c>
       <c r="G329" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H329" t="s">
         <v>4</v>
@@ -12846,7 +12888,7 @@
         <v>640</v>
       </c>
       <c r="G332" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H332" t="s">
         <v>4</v>
@@ -12875,7 +12917,7 @@
         <v>642</v>
       </c>
       <c r="G333" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H333" t="s">
         <v>4</v>
@@ -12991,7 +13033,7 @@
         <v>650</v>
       </c>
       <c r="G337" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H337" t="s">
         <v>4</v>
@@ -13049,7 +13091,7 @@
         <v>654</v>
       </c>
       <c r="G339" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H339" t="s">
         <v>4</v>
@@ -13165,7 +13207,7 @@
         <v>662</v>
       </c>
       <c r="G343" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H343" t="s">
         <v>4</v>
@@ -13281,7 +13323,7 @@
         <v>670</v>
       </c>
       <c r="G347" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H347" t="s">
         <v>4</v>
@@ -13339,7 +13381,7 @@
         <v>674</v>
       </c>
       <c r="G349" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H349" t="s">
         <v>4</v>
@@ -13455,7 +13497,7 @@
         <v>682</v>
       </c>
       <c r="G353" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H353" t="s">
         <v>4</v>
@@ -13513,7 +13555,7 @@
         <v>686</v>
       </c>
       <c r="G355" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H355" t="s">
         <v>4</v>
@@ -13600,7 +13642,7 @@
         <v>692</v>
       </c>
       <c r="G358" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H358" t="s">
         <v>4</v>
@@ -13774,7 +13816,7 @@
         <v>704</v>
       </c>
       <c r="G364" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H364" t="s">
         <v>4</v>
@@ -13861,7 +13903,7 @@
         <v>710</v>
       </c>
       <c r="G367" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H367" t="s">
         <v>4</v>
@@ -13890,7 +13932,7 @@
         <v>712</v>
       </c>
       <c r="G368" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H368" t="s">
         <v>4</v>
@@ -13919,7 +13961,7 @@
         <v>714</v>
       </c>
       <c r="G369" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H369" t="s">
         <v>4</v>
@@ -13948,7 +13990,7 @@
         <v>716</v>
       </c>
       <c r="G370" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H370" t="s">
         <v>4</v>
@@ -14006,7 +14048,7 @@
         <v>720</v>
       </c>
       <c r="G372" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H372" t="s">
         <v>4</v>
@@ -14035,7 +14077,7 @@
         <v>722</v>
       </c>
       <c r="G373" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H373" t="s">
         <v>4</v>
@@ -14058,13 +14100,13 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>501</v>
+        <v>723</v>
       </c>
       <c r="F374" t="s">
-        <v>502</v>
+        <v>724</v>
       </c>
       <c r="G374" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H374" t="s">
         <v>4</v>
@@ -14087,10 +14129,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="F375" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="G375" t="n">
         <v>2</v>
@@ -14116,13 +14158,13 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="F376" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="G376" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H376" t="s">
         <v>4</v>
@@ -14145,13 +14187,13 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="F377" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="G377" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H377" t="s">
         <v>4</v>
@@ -14174,13 +14216,13 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="F378" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="G378" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H378" t="s">
         <v>4</v>
@@ -14203,10 +14245,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="F379" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14232,13 +14274,13 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>733</v>
+        <v>511</v>
       </c>
       <c r="F380" t="s">
-        <v>734</v>
+        <v>512</v>
       </c>
       <c r="G380" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H380" t="s">
         <v>4</v>
@@ -14267,7 +14309,7 @@
         <v>736</v>
       </c>
       <c r="G381" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H381" t="s">
         <v>4</v>
@@ -14325,7 +14367,7 @@
         <v>740</v>
       </c>
       <c r="G383" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H383" t="s">
         <v>4</v>
@@ -14615,7 +14657,7 @@
         <v>760</v>
       </c>
       <c r="G393" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H393" t="s">
         <v>4</v>
@@ -14754,10 +14796,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>513</v>
+        <v>769</v>
       </c>
       <c r="F398" t="s">
-        <v>514</v>
+        <v>770</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14783,13 +14825,13 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="F399" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="G399" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H399" t="s">
         <v>4</v>
@@ -14812,10 +14854,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="F400" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14841,10 +14883,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="F401" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14870,10 +14912,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="F402" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14899,10 +14941,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="F403" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14928,10 +14970,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>779</v>
+        <v>523</v>
       </c>
       <c r="F404" t="s">
-        <v>780</v>
+        <v>524</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -15195,7 +15237,7 @@
         <v>798</v>
       </c>
       <c r="G413" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H413" t="s">
         <v>4</v>
@@ -15363,13 +15405,13 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>613</v>
+        <v>809</v>
       </c>
       <c r="F419" t="s">
-        <v>614</v>
+        <v>810</v>
       </c>
       <c r="G419" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H419" t="s">
         <v>4</v>
@@ -15392,10 +15434,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="F420" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15421,10 +15463,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="F421" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15450,10 +15492,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="F422" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15479,10 +15521,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="F423" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15508,13 +15550,13 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="F424" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="G424" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H424" t="s">
         <v>4</v>
@@ -15537,10 +15579,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>819</v>
+        <v>625</v>
       </c>
       <c r="F425" t="s">
-        <v>820</v>
+        <v>626</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15688,7 +15730,7 @@
         <v>830</v>
       </c>
       <c r="G430" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H430" t="s">
         <v>4</v>
@@ -15833,7 +15875,7 @@
         <v>840</v>
       </c>
       <c r="G435" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H435" t="s">
         <v>4</v>
@@ -16007,7 +16049,7 @@
         <v>852</v>
       </c>
       <c r="G441" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H441" t="s">
         <v>4</v>
@@ -16268,7 +16310,7 @@
         <v>870</v>
       </c>
       <c r="G450" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H450" t="s">
         <v>4</v>
@@ -16407,10 +16449,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="F455" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16436,13 +16478,13 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="F456" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="G456" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H456" t="s">
         <v>4</v>
@@ -16465,10 +16507,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="F457" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16494,10 +16536,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="F458" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16523,10 +16565,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="F459" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16552,10 +16594,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="F460" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -17254,7 +17296,7 @@
         <v>936</v>
       </c>
       <c r="G484" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H484" t="s">
         <v>4</v>
@@ -17428,7 +17470,7 @@
         <v>948</v>
       </c>
       <c r="G490" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H490" t="s">
         <v>4</v>
@@ -17492,6 +17534,209 @@
         <v>4</v>
       </c>
       <c r="I492" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="493" spans="1:9">
+      <c r="A493" s="1" t="n">
+        <v>491</v>
+      </c>
+      <c r="B493" t="s">
+        <v>0</v>
+      </c>
+      <c r="C493" t="s">
+        <v>1</v>
+      </c>
+      <c r="D493" t="n">
+        <v>492</v>
+      </c>
+      <c r="E493" t="s">
+        <v>953</v>
+      </c>
+      <c r="F493" t="s">
+        <v>954</v>
+      </c>
+      <c r="G493" t="n">
+        <v>1</v>
+      </c>
+      <c r="H493" t="s">
+        <v>4</v>
+      </c>
+      <c r="I493" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9">
+      <c r="A494" s="1" t="n">
+        <v>492</v>
+      </c>
+      <c r="B494" t="s">
+        <v>0</v>
+      </c>
+      <c r="C494" t="s">
+        <v>1</v>
+      </c>
+      <c r="D494" t="n">
+        <v>493</v>
+      </c>
+      <c r="E494" t="s">
+        <v>955</v>
+      </c>
+      <c r="F494" t="s">
+        <v>956</v>
+      </c>
+      <c r="G494" t="n">
+        <v>1</v>
+      </c>
+      <c r="H494" t="s">
+        <v>4</v>
+      </c>
+      <c r="I494" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9">
+      <c r="A495" s="1" t="n">
+        <v>493</v>
+      </c>
+      <c r="B495" t="s">
+        <v>0</v>
+      </c>
+      <c r="C495" t="s">
+        <v>1</v>
+      </c>
+      <c r="D495" t="n">
+        <v>494</v>
+      </c>
+      <c r="E495" t="s">
+        <v>957</v>
+      </c>
+      <c r="F495" t="s">
+        <v>958</v>
+      </c>
+      <c r="G495" t="n">
+        <v>1</v>
+      </c>
+      <c r="H495" t="s">
+        <v>4</v>
+      </c>
+      <c r="I495" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="496" spans="1:9">
+      <c r="A496" s="1" t="n">
+        <v>494</v>
+      </c>
+      <c r="B496" t="s">
+        <v>0</v>
+      </c>
+      <c r="C496" t="s">
+        <v>1</v>
+      </c>
+      <c r="D496" t="n">
+        <v>495</v>
+      </c>
+      <c r="E496" t="s">
+        <v>959</v>
+      </c>
+      <c r="F496" t="s">
+        <v>960</v>
+      </c>
+      <c r="G496" t="n">
+        <v>1</v>
+      </c>
+      <c r="H496" t="s">
+        <v>4</v>
+      </c>
+      <c r="I496" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="497" spans="1:9">
+      <c r="A497" s="1" t="n">
+        <v>495</v>
+      </c>
+      <c r="B497" t="s">
+        <v>0</v>
+      </c>
+      <c r="C497" t="s">
+        <v>1</v>
+      </c>
+      <c r="D497" t="n">
+        <v>496</v>
+      </c>
+      <c r="E497" t="s">
+        <v>961</v>
+      </c>
+      <c r="F497" t="s">
+        <v>962</v>
+      </c>
+      <c r="G497" t="n">
+        <v>1</v>
+      </c>
+      <c r="H497" t="s">
+        <v>4</v>
+      </c>
+      <c r="I497" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="498" spans="1:9">
+      <c r="A498" s="1" t="n">
+        <v>496</v>
+      </c>
+      <c r="B498" t="s">
+        <v>0</v>
+      </c>
+      <c r="C498" t="s">
+        <v>1</v>
+      </c>
+      <c r="D498" t="n">
+        <v>497</v>
+      </c>
+      <c r="E498" t="s">
+        <v>963</v>
+      </c>
+      <c r="F498" t="s">
+        <v>964</v>
+      </c>
+      <c r="G498" t="n">
+        <v>1</v>
+      </c>
+      <c r="H498" t="s">
+        <v>4</v>
+      </c>
+      <c r="I498" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="499" spans="1:9">
+      <c r="A499" s="1" t="n">
+        <v>497</v>
+      </c>
+      <c r="B499" t="s">
+        <v>0</v>
+      </c>
+      <c r="C499" t="s">
+        <v>1</v>
+      </c>
+      <c r="D499" t="n">
+        <v>498</v>
+      </c>
+      <c r="E499" t="s">
+        <v>965</v>
+      </c>
+      <c r="F499" t="s">
+        <v>966</v>
+      </c>
+      <c r="G499" t="n">
+        <v>1</v>
+      </c>
+      <c r="H499" t="s">
+        <v>4</v>
+      </c>
+      <c r="I499" t="n">
         <v>3</v>
       </c>
     </row>
